--- a/output/zamienie/2022/sheets/year_2022.xlsx
+++ b/output/zamienie/2022/sheets/year_2022.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>19.40645161290322</v>
+        <v>37.97446861153242</v>
       </c>
       <c r="C2" t="n">
-        <v>16.6</v>
+        <v>35.2134665062388</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.675</v>
+        <v>37.43721437486553</v>
       </c>
       <c r="C3" t="n">
-        <v>20.48214285714285</v>
+        <v>39.69451588588796</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.961290322580643</v>
+        <v>32.46826830739794</v>
       </c>
       <c r="C4" t="n">
-        <v>13.77096774193548</v>
+        <v>39.25999426064521</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.50666666666667</v>
+        <v>36.78056172354808</v>
       </c>
       <c r="C5" t="n">
-        <v>13.18666666666667</v>
+        <v>37.54745997189846</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.74516129032258</v>
+        <v>34.82080466579244</v>
       </c>
       <c r="C6" t="n">
-        <v>14.7483870967742</v>
+        <v>37.20688973417915</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.76333333333333</v>
+        <v>34.84843758497853</v>
       </c>
       <c r="C7" t="n">
-        <v>18.05333333333333</v>
+        <v>38.73243078913364</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.16129032258064</v>
+        <v>38.07889083351886</v>
       </c>
       <c r="C8" t="n">
-        <v>12.7</v>
+        <v>38.53675023602123</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.13870967741936</v>
+        <v>35.83039740817312</v>
       </c>
       <c r="C9" t="n">
-        <v>19.47096774193548</v>
+        <v>37.26933404279507</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.00666666666667</v>
+        <v>33.61515180675381</v>
       </c>
       <c r="C10" t="n">
-        <v>15.03666666666667</v>
+        <v>38.25467260214483</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.03225806451613</v>
+        <v>35.80245833986893</v>
       </c>
       <c r="C11" t="n">
-        <v>12.28709677419355</v>
+        <v>39.82965174922757</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.85333333333334</v>
+        <v>34.46768896064482</v>
       </c>
       <c r="C12" t="n">
-        <v>25.42</v>
+        <v>41.81634857912275</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.56774193548388</v>
+        <v>36.89688534767707</v>
       </c>
       <c r="C13" t="n">
-        <v>15.41290322580645</v>
+        <v>42.35783772674254</v>
       </c>
     </row>
   </sheetData>
